--- a/excel/finalsummary.xlsx
+++ b/excel/finalsummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\google drive\ECE111\Homeworks\ECE111_Final_Project\FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdlop\Downloads\ECE111_Final_Project\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17138649-BA9D-4958-8458-2087FB817593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74B1DB-8F25-45E3-B53D-FB7CF046E7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Last Name</t>
   </si>
@@ -139,26 +139,32 @@
     </r>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
+  <si>
+    <t>Area Aggressive</t>
+  </si>
+  <si>
+    <t>Aggressive Area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +172,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -174,7 +180,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +188,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,35 +196,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +232,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,14 +240,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,14 +255,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -264,7 +270,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -272,14 +278,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +310,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,7 +319,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -720,7 +726,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +738,7 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -742,7 +748,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -751,6 +757,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,9 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1145,57 +1151,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
-    <col min="8" max="10" width="9.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="21.75" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.75" style="2" customWidth="1"/>
-    <col min="16" max="18" width="9.75" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.75" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="2" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="14" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="8" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1267,65 +1273,65 @@
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="4">
-        <v>31607</v>
+        <v>1720</v>
       </c>
       <c r="G3" s="4">
-        <v>20932</v>
+        <v>1471</v>
       </c>
       <c r="H3" s="5">
         <f>F3+G3</f>
-        <v>52539</v>
+        <v>3191</v>
       </c>
       <c r="I3" s="6">
-        <v>134.01</v>
+        <v>148.83000000000001</v>
       </c>
       <c r="J3" s="4">
-        <v>242</v>
+        <v>2246</v>
       </c>
       <c r="K3" s="7">
         <f>J3/I3</f>
-        <v>1.8058353854189988</v>
+        <v>15.091043472418194</v>
       </c>
       <c r="L3" s="7">
         <f>H3*K3/1000</f>
-        <v>94.876785314528775</v>
+        <v>48.15551972048646</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N3" s="4">
-        <v>1525</v>
+        <v>18127</v>
       </c>
       <c r="O3" s="4">
-        <v>2076</v>
+        <v>17279</v>
       </c>
       <c r="P3" s="5">
         <f>N3+O3</f>
-        <v>3601</v>
+        <v>35406</v>
       </c>
       <c r="Q3" s="6">
-        <v>151.94999999999999</v>
+        <v>122.93</v>
       </c>
       <c r="R3" s="4">
-        <v>2252</v>
+        <v>222</v>
       </c>
       <c r="S3" s="7">
         <f>R3/Q3</f>
-        <v>14.820664692333006</v>
+        <v>1.8059058000488082</v>
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3:T4" si="0">P3*S3/1000</f>
-        <v>53.369213557091157</v>
+        <v>63.939900756528097</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="8" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1335,62 +1341,62 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4">
-        <v>31607</v>
+        <v>1722</v>
       </c>
       <c r="G4" s="4">
-        <v>20932</v>
+        <v>1097</v>
       </c>
       <c r="H4" s="5">
         <f>F4+G4</f>
-        <v>52539</v>
+        <v>2819</v>
       </c>
       <c r="I4" s="6">
-        <v>134.01</v>
+        <v>145.75</v>
       </c>
       <c r="J4" s="4">
-        <v>242</v>
+        <v>2246</v>
       </c>
       <c r="K4" s="7">
         <f>J4/I4</f>
-        <v>1.8058353854189988</v>
+        <v>15.409948542024013</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ref="L4" si="1">H4*K4/1000</f>
-        <v>94.876785314528775</v>
+        <v>43.440644939965694</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N4" s="4">
-        <v>1525</v>
+        <v>18181</v>
       </c>
       <c r="O4" s="4">
-        <v>2076</v>
+        <v>11214</v>
       </c>
       <c r="P4" s="5">
         <f>N4+O4</f>
-        <v>3601</v>
+        <v>29395</v>
       </c>
       <c r="Q4" s="6">
-        <v>151.94999999999999</v>
+        <v>134.43</v>
       </c>
       <c r="R4" s="4">
-        <v>2252</v>
+        <v>222</v>
       </c>
       <c r="S4" s="7">
         <f>R4/Q4</f>
-        <v>14.820664692333006</v>
+        <v>1.6514170943985718</v>
       </c>
       <c r="T4" s="7">
         <f t="shared" si="0"/>
-        <v>53.369213557091157</v>
+        <v>48.543405489846016</v>
       </c>
     </row>
   </sheetData>
